--- a/Data/LoginUserData_h5.xlsx
+++ b/Data/LoginUserData_h5.xlsx
@@ -14,13 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luobo123@126.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,12 +55,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -86,9 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,7 +411,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -408,23 +421,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>15950554416</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>333333</v>
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/LoginUserData_h5.xlsx
+++ b/Data/LoginUserData_h5.xlsx
@@ -14,17 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luobo123@126.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +407,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -429,18 +425,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>15950554416</v>
       </c>
       <c r="B2" s="1">
-        <v>123456</v>
+        <v>444444</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/LoginUserData_h5.xlsx
+++ b/Data/LoginUserData_h5.xlsx
@@ -14,13 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lulei1020@126.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +411,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -425,11 +429,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>15950554416</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>444444</v>
+        <v>111111</v>
       </c>
     </row>
   </sheetData>

--- a/Data/LoginUserData_h5.xlsx
+++ b/Data/LoginUserData_h5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +25,10 @@
   </si>
   <si>
     <t>lulei1020@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>******</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +415,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -432,8 +436,8 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>111111</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/LoginUserData_h5.xlsx
+++ b/Data/LoginUserData_h5.xlsx
@@ -14,21 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lulei1020@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>******</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,11 +425,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>15950554416</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
